--- a/Deliverables/Traceability Link Matrix.xlsx
+++ b/Deliverables/Traceability Link Matrix.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittanynall/Documents/GitHub/cs414-f18-801-CtrlAltDefeat/Deliverables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
   <si>
     <t>Traceability Link Matrix - Team CtrlAltDefeat - Brittany Nall &amp; Melissa Smith</t>
   </si>
@@ -120,16 +135,25 @@
   </si>
   <si>
     <t>UC - 19</t>
+  </si>
+  <si>
+    <t>GymSystemCreator</t>
+  </si>
+  <si>
+    <t>GymSystemController</t>
+  </si>
+  <si>
+    <t>SystemDao</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -141,7 +165,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -282,81 +306,137 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -555,7 +635,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -574,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,9 +905,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -844,7 +930,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -863,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,9 +1196,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1126,7 +1218,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1145,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,592 +1488,806 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P21"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5547" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1484" style="1" customWidth="1"/>
-    <col min="10" max="16" width="16.3516" style="1" customWidth="1"/>
-    <col min="17" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" style="1" customWidth="1"/>
+    <col min="19" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" t="s" s="11">
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="11"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="11"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="11"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="10"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+    <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="11"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+    <row r="18" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="P18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+    <row r="19" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+    <row r="21" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Deliverables/Traceability Link Matrix.xlsx
+++ b/Deliverables/Traceability Link Matrix.xlsx
@@ -1,33 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittanynall/Documents/GitHub/cs414-f18-801-CtrlAltDefeat/Deliverables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Traceability Link Matrix - Team CtrlAltDefeat - Brittany Nall &amp; Melissa Smith</t>
   </si>
@@ -77,6 +62,21 @@
     <t>WorkTime</t>
   </si>
   <si>
+    <t>GymSystemCreator</t>
+  </si>
+  <si>
+    <t>GymSystemController</t>
+  </si>
+  <si>
+    <t>SystemDao</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>FitnessClass</t>
+  </si>
+  <si>
     <t>UC - 1</t>
   </si>
   <si>
@@ -137,23 +137,26 @@
     <t>UC - 19</t>
   </si>
   <si>
-    <t>GymSystemCreator</t>
-  </si>
-  <si>
-    <t>GymSystemController</t>
-  </si>
-  <si>
-    <t>SystemDao</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>UC - 20</t>
+  </si>
+  <si>
+    <t>UC - 21</t>
+  </si>
+  <si>
+    <t>UC - 22</t>
+  </si>
+  <si>
+    <t>UC - 23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -165,13 +168,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +198,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -203,6 +217,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -216,7 +252,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -225,7 +261,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -234,43 +270,13 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -279,164 +285,167 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -446,10 +455,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -626,40 +635,43 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -684,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,15 +917,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -922,15 +928,15 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -949,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,15 +1202,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1218,26 +1218,26 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,806 +1488,978 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1719" style="1" customWidth="1"/>
+    <col min="10" max="16" width="16.3516" style="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" style="1" customWidth="1"/>
-    <col min="19" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.3516" style="1" customWidth="1"/>
+    <col min="19" max="21" width="16.3516" style="1" customWidth="1"/>
+    <col min="22" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="B19" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" t="s" s="14">
         <v>39</v>
       </c>
+      <c r="B20" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U20" s="13"/>
     </row>
-    <row r="3" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>17</v>
-      </c>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S21" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
     </row>
-    <row r="4" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>17</v>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U22" t="s" s="13">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>17</v>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U23" t="s" s="13">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>17</v>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U24" t="s" s="13">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T21" s="11"/>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="U25" t="s" s="13">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Deliverables/Traceability Link Matrix.xlsx
+++ b/Deliverables/Traceability Link Matrix.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brittanynall/Documents/GitHub/cs414-f18-801-CtrlAltDefeat/Deliverables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Traceability Link Mat" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
   <si>
     <t>Traceability Link Matrix - Team CtrlAltDefeat - Brittany Nall &amp; Melissa Smith</t>
   </si>
@@ -147,16 +162,16 @@
   </si>
   <si>
     <t>UC - 23</t>
+  </si>
+  <si>
+    <t>TimeOfDay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -168,12 +183,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -205,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,19 +239,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -357,95 +354,143 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -647,7 +692,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -666,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,9 +962,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -936,7 +987,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -955,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,9 +1253,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1218,7 +1275,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1237,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1475,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,978 +1545,1016 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:IX25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1719" style="1" customWidth="1"/>
-    <col min="10" max="16" width="16.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.3516" style="1" customWidth="1"/>
-    <col min="19" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="16.33203125" style="1" customWidth="1"/>
+    <col min="24" max="258" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+    <row r="2" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="7">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="7">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s" s="7">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s" s="8">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s" s="8">
+      <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s" s="8">
+      <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s" s="8">
+      <c r="V2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s" s="8">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="3" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U3" s="13"/>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="14">
+    <row r="4" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T4" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" t="s" s="14">
+    <row r="5" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S5" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" t="s" s="14">
+    <row r="6" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="14">
+    <row r="7" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S7" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T7" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="s" s="14">
+    <row r="8" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S8" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" t="s" s="14">
+    <row r="9" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" t="s" s="14">
+    <row r="10" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S10" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="12"/>
     </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" t="s" s="14">
+    <row r="11" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S11" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="12"/>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" t="s" s="14">
+    <row r="12" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S12" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="12"/>
     </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" t="s" s="14">
+    <row r="13" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="9"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" t="s" s="14">
+    <row r="14" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T14" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" t="s" s="14">
+    <row r="15" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S15" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T15" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" t="s" s="14">
+    <row r="16" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S16" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="12"/>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" t="s" s="14">
+    <row r="17" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S17" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T17" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" t="s" s="14">
+    <row r="18" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T18" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" t="s" s="14">
+    <row r="19" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U19" s="13"/>
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" t="s" s="14">
+    <row r="20" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T20" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U20" s="13"/>
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S21" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="12"/>
     </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" t="s" s="14">
+    <row r="22" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="R22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T22" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U22" t="s" s="13">
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T23" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U23" t="s" s="13">
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" t="s" s="14">
+    <row r="24" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T24" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U24" t="s" s="13">
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" t="s" s="14">
+    <row r="25" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="S25" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="T25" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="U25" t="s" s="13">
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
